--- a/data_summary_master.xlsx
+++ b/data_summary_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfb/Dropbox/6-WILDOCEANS/wildoceans-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0855C4-12A1-8640-BC83-100C6C453691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAEEA20-696C-7942-9BA6-073FDC4ABA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="500" windowWidth="19760" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$195</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1312,8 +1324,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1628,10 +1641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K195"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1894,7 +1908,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2104,7 +2118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2979,7 +2993,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3469,7 +3483,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -3504,7 +3518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3644,7 +3658,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3889,7 +3903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -4204,7 +4218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -4414,7 +4428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -4449,7 +4463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -4869,7 +4883,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -5009,7 +5023,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -5324,7 +5338,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -5394,7 +5408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -5464,7 +5478,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -5499,7 +5513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5583,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -5849,7 +5863,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -6094,7 +6108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -6129,7 +6143,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -6339,7 +6353,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -6514,7 +6528,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -6549,7 +6563,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -6934,7 +6948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -7004,7 +7018,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>163</v>
       </c>
@@ -7459,7 +7473,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>176</v>
       </c>
@@ -7494,7 +7508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>177</v>
       </c>
@@ -7739,7 +7753,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -8054,7 +8068,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -8474,8 +8488,148 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K195" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K195" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="1014"/>
+        <filter val="1019"/>
+        <filter val="10317"/>
+        <filter val="1032"/>
+        <filter val="1041"/>
+        <filter val="1054"/>
+        <filter val="11"/>
+        <filter val="111"/>
+        <filter val="11195"/>
+        <filter val="12"/>
+        <filter val="1261"/>
+        <filter val="13"/>
+        <filter val="130"/>
+        <filter val="137"/>
+        <filter val="138"/>
+        <filter val="14"/>
+        <filter val="145"/>
+        <filter val="1462"/>
+        <filter val="1620"/>
+        <filter val="1640"/>
+        <filter val="17"/>
+        <filter val="172"/>
+        <filter val="17618"/>
+        <filter val="1775"/>
+        <filter val="1802"/>
+        <filter val="1821"/>
+        <filter val="183"/>
+        <filter val="1866"/>
+        <filter val="19"/>
+        <filter val="1935"/>
+        <filter val="2"/>
+        <filter val="20"/>
+        <filter val="200"/>
+        <filter val="209"/>
+        <filter val="212"/>
+        <filter val="217"/>
+        <filter val="22"/>
+        <filter val="2363"/>
+        <filter val="2386"/>
+        <filter val="248"/>
+        <filter val="2504"/>
+        <filter val="2608"/>
+        <filter val="27"/>
+        <filter val="2750"/>
+        <filter val="2778"/>
+        <filter val="28"/>
+        <filter val="2893"/>
+        <filter val="2995"/>
+        <filter val="3"/>
+        <filter val="309"/>
+        <filter val="3161"/>
+        <filter val="3182"/>
+        <filter val="33"/>
+        <filter val="34"/>
+        <filter val="35"/>
+        <filter val="37"/>
+        <filter val="373"/>
+        <filter val="374"/>
+        <filter val="39"/>
+        <filter val="4"/>
+        <filter val="40"/>
+        <filter val="401"/>
+        <filter val="415"/>
+        <filter val="419"/>
+        <filter val="423"/>
+        <filter val="43"/>
+        <filter val="434"/>
+        <filter val="435"/>
+        <filter val="45"/>
+        <filter val="4545"/>
+        <filter val="48"/>
+        <filter val="49"/>
+        <filter val="5"/>
+        <filter val="5002"/>
+        <filter val="53"/>
+        <filter val="54"/>
+        <filter val="5443"/>
+        <filter val="548"/>
+        <filter val="55"/>
+        <filter val="552"/>
+        <filter val="5636"/>
+        <filter val="5708"/>
+        <filter val="58"/>
+        <filter val="6"/>
+        <filter val="60"/>
+        <filter val="6177"/>
+        <filter val="633"/>
+        <filter val="64"/>
+        <filter val="676"/>
+        <filter val="680"/>
+        <filter val="7"/>
+        <filter val="76"/>
+        <filter val="77"/>
+        <filter val="774"/>
+        <filter val="8"/>
+        <filter val="8042"/>
+        <filter val="8251"/>
+        <filter val="83"/>
+        <filter val="8302"/>
+        <filter val="855"/>
+        <filter val="8709"/>
+        <filter val="9"/>
+        <filter val="92"/>
+        <filter val="93"/>
+        <filter val="9393"/>
+        <filter val="976"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>